--- a/configuration/AdminData.xlsx
+++ b/configuration/AdminData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\semester5\SoftwareTesting\PROJECT\New folder\SoftwareTesting\configuration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Doc_STTS\semester5\soft_test\SoftwareTestingProject\configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15EAAC7-9FC8-468B-ABCD-5ECABDFC4BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC640BE-424F-4C57-A890-BC7FC7E7CC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{945B9021-1875-426C-8D2A-4F0CD5A8E660}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{945B9021-1875-426C-8D2A-4F0CD5A8E660}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -449,13 +449,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E380B7-5915-41F0-A15B-EC0CB17D19C8}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -481,7 +485,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -507,7 +511,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
